--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5150B06-2530-A447-98CD-A9B687A42C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{998864DA-CF7C-D346-B5BA-52F5E48798B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1700" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="8620" yWindow="740" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>任务</t>
   </si>
@@ -109,6 +109,9 @@
     <t>标签</t>
   </si>
   <si>
+    <t>节点</t>
+  </si>
+  <si>
     <t>事务</t>
   </si>
   <si>
@@ -163,12 +166,6 @@
     <t>情绪</t>
   </si>
   <si>
-    <t>Adjust</t>
-  </si>
-  <si>
-    <t>调节</t>
-  </si>
-  <si>
     <t>Policy</t>
   </si>
   <si>
@@ -209,6 +206,51 @@
   </si>
   <si>
     <t>Relate</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>控制</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>中继</t>
+  </si>
+  <si>
+    <t>路由</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Repeater</t>
   </si>
 </sst>
 </file>
@@ -581,18 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA1181-72D8-4B43-80EB-E2AD0B599DB9}">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -626,207 +668,254 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+    </row>
+    <row r="2" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-    </row>
-    <row r="3" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+    </row>
+    <row r="3" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(D$3,LEN(D$3)),"
-功能")</f>
-        <v>感知任务
+        <f t="shared" ref="D4:D5" si="0">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>收发过程
 功能</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(E$3,LEN(E$3)),"
 功能")</f>
-        <v>感知资源
+        <v>收发内容
 功能</v>
       </c>
       <c r="F4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>感知知识
+        <v>收发资源
 功能</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>感知信号
+        <v>收发计划
 功能</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>感知信念
+        <v>收发知识
 功能</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>感知感觉
+        <v>收发信号
 功能</v>
       </c>
       <c r="J4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>感知需求
+        <v>收发信念
 功能</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>感知策略
+        <v>收发感觉
 功能</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(L$3,LEN(L$3)),"
 功能")</f>
-        <v>感知符号
+        <v>收发需求
 功能</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
-        <v>感知标签
+        <v>收发策略
 功能</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
-功能")</f>
-        <v>感知事务
-功能</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
+        <f t="shared" ref="N4:O5" si="1">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>收发符号
+功能</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>收发标签
+功能</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(P$3,LEN(P$3)),"
+功能")</f>
+        <v>收发事务
+功能</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -842,82 +931,92 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D6" si="0">_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(D$3,LEN(D$3)),"
-功能")</f>
-        <v>收发任务
+        <f t="shared" si="0"/>
+        <v>读写过程
 功能</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(E$3,LEN(E$3)),"
 功能")</f>
-        <v>收发资源
+        <v>读写内容
 功能</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>收发知识
+        <v>读写资源
 功能</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(G$3,LEN(G$3)),"
 功能")</f>
-        <v>收发信号
+        <v>读写计划
 功能</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>收发信念
+        <v>读写知识
 功能</v>
       </c>
       <c r="I5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>收发感觉
+        <v>读写信号
 功能</v>
       </c>
       <c r="J5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>收发需求
+        <v>读写信念
 功能</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>收发策略
+        <v>读写感觉
 功能</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" ref="L5:M6" si="1">_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
-        <v>收发符号
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>读写需求
 功能</v>
       </c>
       <c r="M5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
+        <v>读写策略
+功能</v>
+      </c>
+      <c r="N5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>收发标签
-功能</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(N$3,LEN(N$3)),"
-功能")</f>
-        <v>收发事务
-功能</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+        <v>读写符号
+功能</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>读写标签
+功能</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(P$3,LEN(P$3)),"
+功能")</f>
+        <v>读写事务
+功能</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -933,82 +1032,52 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>读写任务
-功能</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>读写资源
-功能</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>读写知识
-功能</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>读写信号
-功能</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
-        <v>读写信念
-功能</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>读写感觉
-功能</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
-        <v>读写需求
-功能</v>
-      </c>
+        <v>感知信号
+功能</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
-        <v>读写策略
+        <v>感知感觉
 功能</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写符号
-功能</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写标签
-功能</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(N$3,LEN(N$3)),"
-功能")</f>
-        <v>读写事务
-功能</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>感知需求
+功能</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C6,LEN($C6)),LEFT(S$3,LEN(S$3)),"
+功能")</f>
+        <v>感知情绪
+功能</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1021,11 +1090,13 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1033,7 +1104,7 @@
       <c r="D7" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>运作任务
+        <v>运作过程
 功能</v>
       </c>
       <c r="E7" s="2"/>
@@ -1042,27 +1113,42 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(K$3,LEN(K$3)),"
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
         <v>运作策略
 功能</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(N$3,LEN(N$3)),"
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(P$3,LEN(P$3)),"
 功能")</f>
         <v>运作事务
 功能</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(Q$3,LEN(Q$3)),"
+功能")</f>
+        <v>运作机器
+功能</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="T7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(T$3,LEN(T$3)),"
+功能")</f>
+        <v>运作任务
+功能</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C7,LEN($C7)),LEFT(U$3,LEN(U$3)),"
+功能")</f>
+        <v>运作节点
+功能</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -1073,11 +1159,13 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1085,69 +1173,69 @@
       <c r="D8" s="2" t="str">
         <f t="shared" ref="D8:D11" si="2">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>搜索任务
-功能</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>搜索资源
-功能</v>
-      </c>
+        <v>搜索过程
+功能</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>搜索知识
-功能</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>搜索信号
-功能</v>
-      </c>
+        <v>搜索资源
+功能</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>搜索信念
+        <v>搜索知识
 功能</v>
       </c>
       <c r="I8" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>搜索感觉
+        <v>搜索信号
 功能</v>
       </c>
       <c r="J8" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>搜索需求
+        <v>搜索信念
 功能</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
+        <v>搜索感觉
+功能</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>搜索需求
+功能</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
         <v>搜索策略
 功能</v>
       </c>
-      <c r="L8" s="2" t="str">
-        <f t="shared" ref="L8:N8" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(L$3,LEN(L$3)),"
+      <c r="N8" s="2" t="str">
+        <f t="shared" ref="N8:P8" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>搜索符号
 功能</v>
       </c>
-      <c r="M8" s="2" t="str">
+      <c r="O8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>搜索标签
 功能</v>
       </c>
-      <c r="N8" s="2" t="str">
+      <c r="P8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>搜索事务
 功能</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1163,11 +1251,13 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1180,19 +1270,19 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="2" t="str">
-        <f t="shared" ref="Q9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(Q$3,LEN(Q$3)),"
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2" t="str">
+        <f t="shared" ref="S9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(S$3,LEN(S$3)),"
 功能")</f>
         <v>管理情绪
 功能</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1205,65 +1295,66 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>运算资源
-功能</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>运算知识
-功能</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>运算信号
-功能</v>
-      </c>
+        <v>运算资源
+功能</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>运算信念
+        <v>运算知识
 功能</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>运算感觉
+        <v>运算信号
 功能</v>
       </c>
       <c r="J10" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>运算需求
+        <v>运算信念
 功能</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
+        <v>运算感觉
+功能</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>运算需求
+功能</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
         <v>运算策略
 功能</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1277,91 +1368,93 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>统计任务
-功能</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>统计资源
-功能</v>
-      </c>
+        <v>统计过程
+功能</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>统计知识
-功能</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>统计信号
-功能</v>
-      </c>
+        <v>统计资源
+功能</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>统计信念
+        <v>统计知识
 功能</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>统计感觉
+        <v>统计信号
 功能</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>统计需求
+        <v>统计信念
 功能</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
+        <v>统计感觉
+功能</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>统计需求
+功能</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
         <v>统计策略
 功能</v>
       </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" ref="L11:O11" si="5">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(L$3,LEN(L$3)),"
+      <c r="N11" s="2" t="str">
+        <f t="shared" ref="N11:Q11" si="5">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>统计符号
 功能</v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="O11" s="2" t="str">
         <f t="shared" si="5"/>
         <v>统计标签
 功能</v>
       </c>
-      <c r="N11" s="2" t="str">
+      <c r="P11" s="2" t="str">
         <f t="shared" si="5"/>
         <v>统计事务
 功能</v>
       </c>
-      <c r="O11" s="2" t="str">
+      <c r="Q11" s="2" t="str">
         <f t="shared" si="5"/>
         <v>统计机器
 功能</v>
       </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" ref="P11" si="6">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(P$3,LEN(P$3)),"
+      <c r="R11" s="2" t="str">
+        <f t="shared" ref="R11" si="6">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(R$3,LEN(R$3)),"
 功能")</f>
         <v>统计货币
 功能</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1375,11 +1468,13 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1387,33 +1482,33 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(G$3,LEN(G$3)),"
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
         <v>判定信号
 功能</v>
       </c>
-      <c r="H12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
-        <v>判定信念
-功能</v>
-      </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
+        <v>判定信念
+功能</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
         <v>判定需求
 功能</v>
       </c>
-      <c r="K12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(K$3,LEN(K$3)),"
+      <c r="M12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C12,LEN($C12)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
         <v>判定策略
 功能</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1432,11 +1527,13 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1444,79 +1541,79 @@
       <c r="D13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>计划任务
-功能</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>计划资源
-功能</v>
-      </c>
+        <v>计划过程
+功能</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
-        <v>计划知识
-功能</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>计划信号
-功能</v>
-      </c>
+        <v>计划资源
+功能</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
-        <v>计划信念
+        <v>计划知识
 功能</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
-        <v>计划感觉
+        <v>计划信号
 功能</v>
       </c>
       <c r="J13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(J$3,LEN(J$3)),"
 功能")</f>
-        <v>计划需求
+        <v>计划信念
 功能</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
+        <v>计划感觉
+功能</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>计划需求
+功能</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
         <v>计划策略
 功能</v>
       </c>
-      <c r="L13" s="2" t="str">
-        <f t="shared" ref="L13:Q15" si="7">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(L$3,LEN(L$3)),"
+      <c r="N13" s="2" t="str">
+        <f t="shared" ref="N13:S15" si="7">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>计划符号
 功能</v>
       </c>
-      <c r="M13" s="2" t="str">
+      <c r="O13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>计划标签
 功能</v>
       </c>
-      <c r="N13" s="2" t="str">
+      <c r="P13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>计划事务
 功能</v>
       </c>
-      <c r="O13" s="2" t="str">
+      <c r="Q13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>计划机器
 功能</v>
       </c>
-      <c r="P13" s="2" t="str">
+      <c r="R13" s="2" t="str">
         <f t="shared" si="7"/>
         <v>计划货币
 功能</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1530,58 +1627,60 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>想象知识
-功能</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
+        <v>想象知识
+功能</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(J$3,LEN(J$3)),"
+功能")</f>
         <v>想象信念
 功能</v>
       </c>
-      <c r="I14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
-        <v>想象感觉
-功能</v>
-      </c>
-      <c r="J14" s="2"/>
       <c r="K14" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(K$3,LEN(K$3)),"
 功能")</f>
+        <v>想象感觉
+功能</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C14,LEN($C14)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
         <v>想象策略
 功能</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="N14" s="2" t="str">
         <f t="shared" si="7"/>
         <v>想象符号
 功能</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="str">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="str">
         <f t="shared" si="7"/>
         <v>想象机器
 功能</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1595,14 +1694,16 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1613,21 +1714,34 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="str">
+        <f t="shared" ref="M15" si="8">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
+        <v>控制策略
+功能</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="str">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>调节情绪
-功能</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+        <v>控制情绪
+功能</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="V15" s="2" t="str">
+        <f t="shared" ref="V15:W15" si="9">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(V$3,LEN(V$3)),"
+功能")</f>
+        <v>控制目标
+功能</v>
+      </c>
+      <c r="W15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>控制问题
+功能</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1636,38 +1750,60 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>调度过程
+功能</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(F$3,LEN(F$3)),"
+功能")</f>
+        <v>调度资源
+功能</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>调度计划
+功能</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(O$3,LEN(O$3)),"
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(Q$3,LEN(Q$3)),"
 功能")</f>
         <v>调度机器
 功能</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(U$3,LEN(U$3)),"
+功能")</f>
+        <v>调度节点
+功能</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1678,91 +1814,93 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>关联任务
-功能</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
-        <v>关联资源
-功能</v>
-      </c>
+        <v>关联过程
+功能</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(F$3,LEN(F$3)),"
 功能")</f>
+        <v>关联资源
+功能</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(H$3,LEN(H$3)),"
+功能")</f>
         <v>关联知识
 功能</v>
       </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" ref="G17:Q17" si="8">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(G$3,LEN(G$3)),"
+      <c r="I17" s="2" t="str">
+        <f t="shared" ref="I17:S17" si="10">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
         <v>关联信号
 功能</v>
       </c>
-      <c r="H17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联信念
 功能</v>
       </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联感觉
 功能</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联需求
 功能</v>
       </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联策略
 功能</v>
       </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联符号
 功能</v>
       </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联标签
 功能</v>
       </c>
-      <c r="N17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联事务
 功能</v>
       </c>
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联机器
 功能</v>
       </c>
-      <c r="P17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联货币
 功能</v>
       </c>
-      <c r="Q17" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="S17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>关联情绪
 功能</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1775,8 +1913,10 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
@@ -1808,8 +1948,10 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -1841,8 +1983,10 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -1874,8 +2018,10 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
@@ -1907,8 +2053,10 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -1940,8 +2088,10 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -1973,8 +2123,10 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -2006,8 +2158,10 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -2039,8 +2193,10 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -2072,8 +2228,10 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -2105,8 +2263,10 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -2138,8 +2298,10 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -2171,8 +2333,10 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
@@ -2204,8 +2368,10 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
@@ -2237,8 +2403,10 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-    </row>
-    <row r="32" spans="1:31" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -2270,6 +2438,8 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{998864DA-CF7C-D346-B5BA-52F5E48798B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47643977-508B-4345-A614-492C8EAAA076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="740" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="17560" yWindow="2500" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>任务</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Repeater</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>方案</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +691,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -764,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -846,67 +852,59 @@
 功能</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(E$3,LEN(E$3)),"
+        <f t="shared" ref="E4:M5" si="1">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(E$3,LEN(E$3)),"
 功能")</f>
         <v>收发内容
 功能</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发资源
 功能</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>收发计划
+        <f t="shared" si="1"/>
+        <v>收发方案
 功能</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发知识
 功能</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发信号
 功能</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发信念
 功能</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(K$3,LEN(K$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发感觉
 功能</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发需求
 功能</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(M$3,LEN(M$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>收发策略
 功能</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:O5" si="1">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
+        <f t="shared" ref="N4:O5" si="2">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>收发符号
 功能</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>收发标签
 功能</v>
       </c>
@@ -948,66 +946,57 @@
 功能</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(E$3,LEN(E$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写内容
 功能</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写资源
 功能</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>读写计划
+        <f t="shared" si="1"/>
+        <v>读写方案
 功能</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写知识
 功能</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写信号
 功能</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写信念
 功能</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(K$3,LEN(K$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写感觉
 功能</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写需求
 功能</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),LEFT(M$3,LEN(M$3)),"
-功能")</f>
+        <f t="shared" si="1"/>
         <v>读写策略
 功能</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>读写符号
 功能</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>读写标签
 功能</v>
       </c>
@@ -1171,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" ref="D8:D11" si="2">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(D$3,LEN(D$3)),"
+        <f t="shared" ref="D8:D11" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
         <v>搜索过程
 功能</v>
@@ -1221,18 +1210,18 @@
 功能</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" ref="N8:P8" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(N$3,LEN(N$3)),"
+        <f t="shared" ref="N8:P8" si="4">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>搜索符号
 功能</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>搜索标签
 功能</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>搜索事务
 功能</v>
       </c>
@@ -1278,7 +1267,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="2" t="str">
-        <f t="shared" ref="S9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(S$3,LEN(S$3)),"
+        <f t="shared" ref="S9" si="5">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(S$3,LEN(S$3)),"
 功能")</f>
         <v>管理情绪
 功能</v>
@@ -1316,38 +1305,33 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(H$3,LEN(H$3)),"
+        <f t="shared" ref="H10:M11" si="6">_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
         <v>运算知识
 功能</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>运算信号
 功能</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>运算信念
 功能</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(K$3,LEN(K$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>运算感觉
 功能</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>运算需求
 功能</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(M$3,LEN(M$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>运算策略
 功能</v>
       </c>
@@ -1380,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>统计过程
 功能</v>
       </c>
@@ -1393,64 +1377,58 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(H$3,LEN(H$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>统计知识
 功能</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(I$3,LEN(I$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>统计信号
 功能</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(J$3,LEN(J$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>统计信念
 功能</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(K$3,LEN(K$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>统计感觉
 功能</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(L$3,LEN(L$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>统计需求
 功能</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(M$3,LEN(M$3)),"
-功能")</f>
+        <f t="shared" si="6"/>
         <v>统计策略
 功能</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" ref="N11:Q11" si="5">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(N$3,LEN(N$3)),"
+        <f t="shared" ref="N11:Q11" si="7">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>统计符号
 功能</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>统计标签
 功能</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>统计事务
 功能</v>
       </c>
       <c r="Q11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>统计机器
 功能</v>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" ref="R11" si="6">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(R$3,LEN(R$3)),"
+        <f t="shared" ref="R11" si="8">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(R$3,LEN(R$3)),"
 功能")</f>
         <v>统计货币
 功能</v>
@@ -1551,7 +1529,12 @@
         <v>计划资源
 功能</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(G$3,LEN(G$3)),"
+功能")</f>
+        <v>计划方案
+功能</v>
+      </c>
       <c r="H13" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
@@ -1589,28 +1572,28 @@
 功能</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" ref="N13:S15" si="7">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(N$3,LEN(N$3)),"
+        <f t="shared" ref="N13:S15" si="9">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>计划符号
 功能</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>计划标签
 功能</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>计划事务
 功能</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>计划机器
 功能</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>计划货币
 功能</v>
       </c>
@@ -1669,14 +1652,14 @@
 功能</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>想象符号
 功能</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>想象机器
 功能</v>
       </c>
@@ -1715,7 +1698,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f t="shared" ref="M15" si="8">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(M$3,LEN(M$3)),"
+        <f t="shared" ref="M15" si="10">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
         <v>控制策略
 功能</v>
@@ -1725,20 +1708,20 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>控制情绪
 功能</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="2" t="str">
-        <f t="shared" ref="V15:W15" si="9">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(V$3,LEN(V$3)),"
+        <f t="shared" ref="V15:W15" si="11">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(V$3,LEN(V$3)),"
 功能")</f>
         <v>控制目标
 功能</v>
       </c>
       <c r="W15" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>控制问题
 功能</v>
       </c>
@@ -1761,25 +1744,10 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(D$3,LEN(D$3)),"
-功能")</f>
-        <v>调度过程
-功能</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(F$3,LEN(F$3)),"
-功能")</f>
-        <v>调度资源
-功能</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C16,LEN($C16)),LEFT(G$3,LEN(G$3)),"
-功能")</f>
-        <v>调度计划
-功能</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1846,58 +1814,58 @@
 功能</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17:S17" si="10">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
+        <f t="shared" ref="I17:S17" si="12">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
         <v>关联信号
 功能</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联信念
 功能</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联感觉
 功能</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联需求
 功能</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联策略
 功能</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联符号
 功能</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联标签
 功能</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联事务
 功能</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联机器
 功能</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联货币
 功能</v>
       </c>
       <c r="S17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>关联情绪
 功能</v>
       </c>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47643977-508B-4345-A614-492C8EAAA076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E353FB-2DBF-EF4F-B7B5-F92D41E378B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="2500" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="4120" yWindow="980" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -632,10 +632,10 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,65 +846,65 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:D5" si="0">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(D$3,LEN(D$3)),"
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
         <v>收发过程
 功能</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:M5" si="1">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(E$3,LEN(E$3)),"
+        <f t="shared" ref="E4:M5" si="0">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(E$3,LEN(E$3)),"
 功能")</f>
         <v>收发内容
 功能</v>
       </c>
       <c r="F4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发资源
+功能</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发方案
+功能</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发知识
+功能</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发信号
+功能</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发信念
+功能</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发感觉
+功能</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发需求
+功能</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>收发策略
+功能</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" ref="N4:O5" si="1">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>收发符号
+功能</v>
+      </c>
+      <c r="O4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>收发资源
-功能</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发方案
-功能</v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发知识
-功能</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发信号
-功能</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发信念
-功能</v>
-      </c>
-      <c r="K4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发感觉
-功能</v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发需求
-功能</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>收发策略
-功能</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:O5" si="2">_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(N$3,LEN(N$3)),"
-功能")</f>
-        <v>收发符号
-功能</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>收发标签
 功能</v>
       </c>
@@ -941,62 +941,64 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C5,LEN($C5)),
+LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>读写过程
+功能</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>读写过程
-功能</v>
-      </c>
-      <c r="E5" s="2" t="str">
+        <v>读写内容
+功能</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写资源
+功能</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写方案
+功能</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写知识
+功能</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写信号
+功能</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写信念
+功能</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写感觉
+功能</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写需求
+功能</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>读写策略
+功能</v>
+      </c>
+      <c r="N5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>读写内容
-功能</v>
-      </c>
-      <c r="F5" s="2" t="str">
+        <v>读写符号
+功能</v>
+      </c>
+      <c r="O5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>读写资源
-功能</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写方案
-功能</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写知识
-功能</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写信号
-功能</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写信念
-功能</v>
-      </c>
-      <c r="K5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写感觉
-功能</v>
-      </c>
-      <c r="L5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写需求
-功能</v>
-      </c>
-      <c r="M5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>读写策略
-功能</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>读写符号
-功能</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="2"/>
         <v>读写标签
 功能</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" ref="D8:D11" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(D$3,LEN(D$3)),"
+        <f t="shared" ref="D8:D11" si="2">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
         <v>搜索过程
 功能</v>
@@ -1210,18 +1212,18 @@
 功能</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" ref="N8:P8" si="4">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(N$3,LEN(N$3)),"
+        <f t="shared" ref="N8:P8" si="3">_xlfn.TEXTJOIN(,,LEFT($C8,LEN($C8)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>搜索符号
 功能</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>搜索标签
 功能</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>搜索事务
 功能</v>
       </c>
@@ -1267,7 +1269,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="2" t="str">
-        <f t="shared" ref="S9" si="5">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(S$3,LEN(S$3)),"
+        <f t="shared" ref="S9" si="4">_xlfn.TEXTJOIN(,,LEFT($C9,LEN($C9)),LEFT(S$3,LEN(S$3)),"
 功能")</f>
         <v>管理情绪
 功能</v>
@@ -1305,33 +1307,33 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="str">
-        <f t="shared" ref="H10:M11" si="6">_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(H$3,LEN(H$3)),"
+        <f t="shared" ref="H10:M11" si="5">_xlfn.TEXTJOIN(,,LEFT($C10,LEN($C10)),LEFT(H$3,LEN(H$3)),"
 功能")</f>
         <v>运算知识
 功能</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>运算信号
 功能</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>运算信念
 功能</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>运算感觉
 功能</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>运算需求
 功能</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>运算策略
 功能</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>统计过程
 功能</v>
       </c>
@@ -1377,58 +1379,58 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计知识
+功能</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计信号
+功能</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计信念
+功能</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计感觉
+功能</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计需求
+功能</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>统计策略
+功能</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" ref="N11:Q11" si="6">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(N$3,LEN(N$3)),"
+功能")</f>
+        <v>统计符号
+功能</v>
+      </c>
+      <c r="O11" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>统计知识
-功能</v>
-      </c>
-      <c r="I11" s="2" t="str">
+        <v>统计标签
+功能</v>
+      </c>
+      <c r="P11" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>统计信号
-功能</v>
-      </c>
-      <c r="J11" s="2" t="str">
+        <v>统计事务
+功能</v>
+      </c>
+      <c r="Q11" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>统计信念
-功能</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>统计感觉
-功能</v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>统计需求
-功能</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>统计策略
-功能</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" ref="N11:Q11" si="7">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(N$3,LEN(N$3)),"
-功能")</f>
-        <v>统计符号
-功能</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>统计标签
-功能</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>统计事务
-功能</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <f t="shared" si="7"/>
         <v>统计机器
 功能</v>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" ref="R11" si="8">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(R$3,LEN(R$3)),"
+        <f t="shared" ref="R11" si="7">_xlfn.TEXTJOIN(,,LEFT($C11,LEN($C11)),LEFT(R$3,LEN(R$3)),"
 功能")</f>
         <v>统计货币
 功能</v>
@@ -1572,28 +1574,28 @@
 功能</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" ref="N13:S15" si="9">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(N$3,LEN(N$3)),"
+        <f t="shared" ref="N13:S15" si="8">_xlfn.TEXTJOIN(,,LEFT($C13,LEN($C13)),LEFT(N$3,LEN(N$3)),"
 功能")</f>
         <v>计划符号
 功能</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>计划标签
 功能</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>计划事务
 功能</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>计划机器
 功能</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>计划货币
 功能</v>
       </c>
@@ -1652,14 +1654,14 @@
 功能</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>想象符号
 功能</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>想象机器
 功能</v>
       </c>
@@ -1698,7 +1700,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
-        <f t="shared" ref="M15" si="10">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(M$3,LEN(M$3)),"
+        <f t="shared" ref="M15" si="9">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
         <v>控制策略
 功能</v>
@@ -1708,20 +1710,20 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>控制情绪
 功能</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="2" t="str">
-        <f t="shared" ref="V15:W15" si="11">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(V$3,LEN(V$3)),"
+        <f t="shared" ref="V15:W15" si="10">_xlfn.TEXTJOIN(,,LEFT($C15,LEN($C15)),LEFT(V$3,LEN(V$3)),"
 功能")</f>
         <v>控制目标
 功能</v>
       </c>
       <c r="W15" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>控制问题
 功能</v>
       </c>
@@ -1814,58 +1816,58 @@
 功能</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17:S17" si="12">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
+        <f t="shared" ref="I17:S17" si="11">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
         <v>关联信号
 功能</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联信念
 功能</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联感觉
 功能</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联需求
 功能</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联策略
 功能</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联符号
 功能</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联标签
 功能</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联事务
 功能</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联机器
 功能</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联货币
 功能</v>
       </c>
       <c r="S17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>关联情绪
 功能</v>
       </c>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E353FB-2DBF-EF4F-B7B5-F92D41E378B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A2BFD-EF0D-8445-B528-DD931241EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4120" yWindow="980" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>任务</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>方案</t>
+  </si>
+  <si>
+    <t>生成</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>组装</t>
+  </si>
+  <si>
+    <t>Assemble</t>
   </si>
 </sst>
 </file>
@@ -632,10 +644,10 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1816,7 +1828,7 @@
 功能</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17:S17" si="11">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
+        <f t="shared" ref="I17:S18" si="11">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
         <v>关联信号
 功能</v>
@@ -1888,9 +1900,18 @@
     </row>
     <row r="18" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(D$3,LEN(D$3)),"
+功能")</f>
+        <v>生成过程
+功能</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1899,11 +1920,16 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(M$3,LEN(M$3)),"
+功能")</f>
+        <v>生成策略
+功能</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1923,9 +1949,13 @@
     </row>
     <row r="19" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1934,11 +1964,16 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C19,LEN($C19)),LEFT(Q$3,LEN(Q$3)),"
+功能")</f>
+        <v>组装机器
+功能</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248A2BFD-EF0D-8445-B528-DD931241EA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E623E186-6F94-6948-8984-142CCA3798E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="980" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="2860" yWindow="1480" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -262,13 +262,13 @@
     <t>生成</t>
   </si>
   <si>
-    <t>Build</t>
-  </si>
-  <si>
     <t>组装</t>
   </si>
   <si>
     <t>Assemble</t>
+  </si>
+  <si>
+    <t>Produce</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1828,7 +1828,7 @@
 功能</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17:S18" si="11">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
+        <f t="shared" ref="I17:S17" si="11">_xlfn.TEXTJOIN(,,LEFT($C17,LEN($C17)),LEFT(I$3,LEN(I$3)),"
 功能")</f>
         <v>关联信号
 功能</v>
@@ -1901,7 +1901,7 @@
     <row r="18" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>74</v>
@@ -1950,10 +1950,10 @@
     <row r="19" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E623E186-6F94-6948-8984-142CCA3798E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A545CB3-1F78-E14B-B175-076518CA92F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="1480" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>任务</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>Produce</t>
+  </si>
+  <si>
+    <t>Questiion</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>Analyse</t>
   </si>
 </sst>
 </file>
@@ -644,10 +653,10 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,7 +768,9 @@
       <c r="Y2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -838,7 +849,9 @@
       <c r="Y3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1993,8 +2006,12 @@
     </row>
     <row r="20" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A545CB3-1F78-E14B-B175-076518CA92F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB2700-B47B-EA47-8B86-0F5C41134427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1480" windowWidth="29200" windowHeight="24880" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
+    <workbookView xWindow="2860" yWindow="0" windowWidth="29200" windowHeight="21000" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
   <sheets>
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>任务</t>
   </si>
@@ -259,25 +259,22 @@
     <t>方案</t>
   </si>
   <si>
-    <t>生成</t>
-  </si>
-  <si>
     <t>组装</t>
   </si>
   <si>
     <t>Assemble</t>
   </si>
   <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Questiion</t>
-  </si>
-  <si>
     <t>分析</t>
   </si>
   <si>
     <t>Analyse</t>
+  </si>
+  <si>
+    <t>构造</t>
+  </si>
+  <si>
+    <t>Build</t>
   </si>
 </sst>
 </file>
@@ -650,18 +647,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECA1181-72D8-4B43-80EB-E2AD0B599DB9}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -696,9 +693,8 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-    </row>
-    <row r="2" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -768,18 +764,15 @@
       <c r="Y2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -849,18 +842,15 @@
       <c r="Y3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -871,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),LEFT(D$3,LEN(D$3)),"
+        <f>_xlfn.TEXTJOIN(,,LEFT($C4,LEN($C4)),"",LEFT(D$3,LEN(D$3)),"
 功能")</f>
         <v>收发过程
 功能</v>
@@ -955,9 +945,8 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
@@ -1049,9 +1038,8 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1107,9 +1095,8 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -1176,9 +1163,8 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>33</v>
@@ -1268,9 +1254,8 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>34</v>
@@ -1312,9 +1297,8 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>35</v>
@@ -1380,9 +1364,8 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -1474,9 +1457,8 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>37</v>
@@ -1533,9 +1515,8 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>38</v>
@@ -1638,9 +1619,8 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>39</v>
@@ -1705,9 +1685,8 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>63</v>
@@ -1761,9 +1740,8 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -1810,9 +1788,8 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>56</v>
@@ -1909,20 +1886,19 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>生成过程
+        <v>构造过程
 功能</v>
       </c>
       <c r="E18" s="1"/>
@@ -1932,11 +1908,16 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(L$3,LEN(L$3)),"
+功能")</f>
+        <v>构造需求
+功能</v>
+      </c>
       <c r="M18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
-        <v>生成策略
+        <v>构造策略
 功能</v>
       </c>
       <c r="N18" s="1"/>
@@ -1945,10 +1926,25 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(T$3,LEN(T$3)),"
+功能")</f>
+        <v>构造任务
+功能</v>
+      </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="V18" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(V$3,LEN(V$3)),"
+功能")</f>
+        <v>构造目标
+功能</v>
+      </c>
+      <c r="W18" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(W$3,LEN(W$3)),"
+功能")</f>
+        <v>构造问题
+功能</v>
+      </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -1958,15 +1954,14 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -2002,15 +1997,14 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2041,9 +2035,8 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
@@ -2076,9 +2069,8 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -2111,9 +2103,8 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -2146,9 +2137,8 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -2181,9 +2171,8 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -2216,9 +2205,8 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -2251,9 +2239,8 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -2286,9 +2273,8 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -2321,9 +2307,8 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -2356,9 +2341,8 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
@@ -2391,9 +2375,8 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
@@ -2426,9 +2409,8 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="1:33" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -2461,7 +2443,6 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB2700-B47B-EA47-8B86-0F5C41134427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A5C3B-85A0-D44A-848E-2F6F982D1FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="0" windowWidth="29200" windowHeight="21000" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
@@ -271,10 +271,10 @@
     <t>Analyse</t>
   </si>
   <si>
-    <t>构造</t>
-  </si>
-  <si>
     <t>Build</t>
+  </si>
+  <si>
+    <t>生成</t>
   </si>
 </sst>
 </file>
@@ -650,10 +650,10 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1890,15 +1890,15 @@
     <row r="18" spans="1:32" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(D$3,LEN(D$3)),"
 功能")</f>
-        <v>构造过程
+        <v>生成过程
 功能</v>
       </c>
       <c r="E18" s="1"/>
@@ -1911,13 +1911,13 @@
       <c r="L18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(L$3,LEN(L$3)),"
 功能")</f>
-        <v>构造需求
+        <v>生成需求
 功能</v>
       </c>
       <c r="M18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(M$3,LEN(M$3)),"
 功能")</f>
-        <v>构造策略
+        <v>生成策略
 功能</v>
       </c>
       <c r="N18" s="1"/>
@@ -1929,20 +1929,20 @@
       <c r="T18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(T$3,LEN(T$3)),"
 功能")</f>
-        <v>构造任务
+        <v>生成任务
 功能</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(V$3,LEN(V$3)),"
 功能")</f>
-        <v>构造目标
+        <v>生成目标
 功能</v>
       </c>
       <c r="W18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(,,LEFT($C18,LEN($C18)),LEFT(W$3,LEN(W$3)),"
 功能")</f>
-        <v>构造问题
+        <v>生成问题
 功能</v>
       </c>
       <c r="X18" s="1"/>

--- a/Notes/机器功能/机器功能列表.xlsx
+++ b/Notes/机器功能/机器功能列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/机器功能/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A5C3B-85A0-D44A-848E-2F6F982D1FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04DB4DD-4228-3A48-9972-A61BA34C6867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="0" windowWidth="29200" windowHeight="21000" xr2:uid="{BA14E3FC-4000-EB4D-B2DB-436AAAC43B45}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="机器机制交叉表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -650,10 +651,10 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
